--- a/similarities/split_global/harmonic_similarity_timestamps_70.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_70.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,734 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A:min', 'E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:min', 'G:min/A#', 'C:min', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000')]</t>
+          <t>('0:00:03.831000', '0:00:12.567000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:10.820000', '0:00:17.080000')]</t>
+          <t>('0:01:34.120000', '0:01:48.980000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=3.831</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=10.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=94.12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E']]</t>
+          <t>['Ab/5', 'Eb', 'Ab/5']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['G#/C', 'D#', 'G#']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:04.103323', '0:00:13.890534')]</t>
+          <t>('0:00:18.978000', '0:00:24.727000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:42.900000', '0:00:45.160000')]</t>
+          <t>('0:00:48.600000', '0:00:53')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=4.103323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=42.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=48.6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_62</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
+          <t>('0:00:49', '0:00:56.800000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:00:05.940000', '0:00:25.280000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=58.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=49.0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-62#t=5.94</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>jaah_29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:03:46.620000', '0:03:52.800000')]</t>
+          <t>('0:00:31.910000', '0:00:44.110000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:13.390000', '0:00:17.230000')]</t>
+          <t>('0:00:24.860000', '0:00:52.580000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=13.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=24.86</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_220</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:46.900000', '0:00:55.240000')]</t>
+          <t>('0:01:35.020000', '0:01:47.700000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:18.710045', '0:00:20.463151')]</t>
+          <t>('0:00:56.800000', '0:01:01.480000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=46.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=95.02</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=18.710045']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=56.8</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>jaah_54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:08.720000', '0:00:10.480000')]</t>
+          <t>('0:00:19.130000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:22.370000', '0:00:40.370000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=8.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=19.13</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>jaah_83</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'C#:7/G#', 'F#:min']]</t>
+          <t>['Bb:7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G', 'B:7', 'E:min']]</t>
+          <t>['A:7', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.200000', '0:00:07.760000')]</t>
+          <t>('0:00:46.590000', '0:00:53.060000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:00.427000', '0:00:05.357000')]</t>
+          <t>('0:00:02.900000', '0:00:11.630000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=0.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=46.59</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=0.427']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=2.9</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:33.940000', '0:00:40.880000')]</t>
+          <t>('0:01:43.380000', '0:01:57.340000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:12.980000', '0:01:32.860000')]</t>
+          <t>('0:00:46.960000', '0:00:50.740000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=33.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=103.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=72.98']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj', 'A:7', 'D:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:19.500000', '0:00:41.740000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=19.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>isophonics_149</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'G', 'F']]</t>
+          <t>['B', 'E', 'B']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+          <t>('0:00:01.421269', '0:00:26.162131')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:26.900000', '0:00:30.840000')]</t>
+          <t>('0:02:08.540000', '0:02:12.840000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-149#t=26.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_54</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_77</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D', 'A']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.560000', '0:00:23.180000')]</t>
+          <t>('0:00:25.640000', '0:00:56.260000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.446618', '0:00:13.878853')]</t>
+          <t>('0:00:47.020000', '0:01:01.580000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=15.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=25.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=0.446618']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>['D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:04.700000', '0:00:21.620000')]</t>
+          <t>('0:04:09.320000', '0:04:23.440000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:02:17.340000', '0:02:20.480000')]</t>
+          <t>('0:04:42.120000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=4.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=249.32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=137.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=282.12</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:12.580000'), ('0:00:01.460000', '0:00:09.840000')]</t>
+          <t>('0:01:10.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:04:43.300000', '0:04:50.060000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=283.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E', 'A', 'E', 'A']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj', 'C#:maj']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:28.356495')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:09.060000', '0:00:13.120000')]</t>
+          <t>('0:00:20.560000', '0:00:23.940000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>isophonics_248</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>isophonics_205</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E']]</t>
+          <t>['G', 'B:min', 'A']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['F', 'A:min', 'G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:55.002834', '0:00:59.124376')]</t>
+          <t>('0:00:50.686000', '0:00:54.233000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.960000', '0:00:10.800000')]</t>
+          <t>('0:00:06.451609', '0:00:12.767437')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=50.686</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.96']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-205#t=6.451609</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
